--- a/biology/Médecine/Muscle_corrugateur_du_sourcil/Muscle_corrugateur_du_sourcil.xlsx
+++ b/biology/Médecine/Muscle_corrugateur_du_sourcil/Muscle_corrugateur_du_sourcil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle corrugateur du sourcil (Musculus corrugator supercilii en latin) ou muscle sourcilier est un petit muscle pair, charnu situé le long de l'arcade sourcilière.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Origine : il naît par un, deux ou trois faisceaux, de la partie interne de l'arcade sourcilière, sur l'os frontal
 Trajet : il forme une languette charnue, étroite, assez épaisse qui se dirige en haut et en dehors en décrivant une légère courbe à concavité inférieure
@@ -543,7 +557,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est innervé par un rameau temporal du nerf facial.
 </t>
@@ -574,7 +590,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fronce le sourcil en l'amenant en bas et en dedans aussi est-il parfois surnommé le « muscle de la tristesse ».
 </t>
@@ -605,7 +623,9 @@
           <t>Rapports</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est recouvert par les muscles pyramidal du nez, orbiculaire de l'œil et occipito-frontal.
 </t>
